--- a/计划/完整计划.xlsx
+++ b/计划/完整计划.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dream\计划\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,12 @@
     <sheet name="李进" sheetId="5" r:id="rId5"/>
     <sheet name="滨滨" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="113">
   <si>
     <t>专题</t>
   </si>
@@ -302,7 +307,7 @@
         <sz val="10"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -346,7 +351,7 @@
         <sz val="10"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/Kummer</t>
     </r>
@@ -364,7 +369,7 @@
         <sz val="10"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/Best</t>
     </r>
@@ -426,18 +431,29 @@
   <si>
     <t>群论基础与Polya定理,bunside引理</t>
   </si>
+  <si>
+    <r>
+      <t>就差r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ope还没学</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,13 +483,13 @@
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -486,12 +502,12 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -501,151 +517,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,194 +551,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -913,253 +614,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1201,62 +660,19 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1514,28 +930,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" ht="15" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1569,7 +985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1586,7 +1002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1603,7 +1019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="25.5" spans="1:5">
+    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1620,7 +1036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1637,7 +1053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1654,7 +1070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1671,7 +1087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1688,7 +1104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="24.75" spans="1:5">
+    <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1705,7 +1121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -1722,7 +1138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1739,7 +1155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
@@ -1756,7 +1172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -1773,7 +1189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -1790,14 +1206,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
@@ -1819,32 +1235,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1861,11 +1276,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="5">
@@ -1878,7 +1293,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" ht="24.75" spans="1:5">
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -1895,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="26.25" spans="1:5">
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1911,12 +1326,15 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" ht="15" spans="1:5">
+      <c r="G5" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="9">
         <v>0.5</v>
       </c>
       <c r="C6" s="6">
@@ -1929,7 +1347,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1946,7 +1364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1963,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1980,7 +1398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -1997,7 +1415,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
@@ -2014,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -2031,7 +1449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
@@ -2048,7 +1466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2065,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
@@ -2082,7 +1500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -2099,7 +1517,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
@@ -2119,7 +1537,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
@@ -2136,7 +1554,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
@@ -2153,7 +1571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" ht="24.75" spans="1:5">
+    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
@@ -2170,7 +1588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
@@ -2187,7 +1605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>41</v>
       </c>
@@ -2204,7 +1622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
@@ -2221,7 +1639,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>43</v>
       </c>
@@ -2238,7 +1656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>44</v>
       </c>
@@ -2255,7 +1673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>45</v>
       </c>
@@ -2272,7 +1690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>46</v>
       </c>
@@ -2289,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:5">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>47</v>
       </c>
@@ -2306,7 +1724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" ht="50.25" spans="1:5">
+    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
@@ -2323,7 +1741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" ht="24.75" spans="1:5">
+    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>49</v>
       </c>
@@ -2340,7 +1758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" ht="62.25" spans="1:5">
+    <row r="31" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>50</v>
       </c>
@@ -2357,7 +1775,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:5">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>51</v>
       </c>
@@ -2374,7 +1792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" ht="62.25" spans="1:5">
+    <row r="33" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>52</v>
       </c>
@@ -2391,7 +1809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>53</v>
       </c>
@@ -2408,7 +1826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>54</v>
       </c>
@@ -2425,7 +1843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>55</v>
       </c>
@@ -2442,7 +1860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" ht="24.75" spans="1:5">
+    <row r="37" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>56</v>
       </c>
@@ -2459,7 +1877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" ht="24.75" spans="1:5">
+    <row r="38" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>57</v>
       </c>
@@ -2476,7 +1894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>58</v>
       </c>
@@ -2493,7 +1911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>59</v>
       </c>
@@ -2510,7 +1928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>19</v>
       </c>
@@ -2532,28 +1950,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="6" max="6" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15"/>
-    <row r="2" ht="15" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2570,7 +1986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
@@ -2587,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="24.75" spans="1:5">
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
@@ -2604,7 +2020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="24.75" spans="1:5">
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>62</v>
       </c>
@@ -2621,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
@@ -2638,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>64</v>
       </c>
@@ -2655,7 +2071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
@@ -2672,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>66</v>
       </c>
@@ -2689,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
@@ -2706,7 +2122,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" ht="24.75" spans="1:5">
+    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
@@ -2723,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>69</v>
       </c>
@@ -2740,7 +2156,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" ht="24.75" spans="1:5">
+    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>70</v>
       </c>
@@ -2757,7 +2173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" ht="37.5" spans="1:5">
+    <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>71</v>
       </c>
@@ -2774,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -2791,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>73</v>
       </c>
@@ -2811,7 +2227,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>75</v>
       </c>
@@ -2828,7 +2244,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>76</v>
       </c>
@@ -2845,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>77</v>
       </c>
@@ -2865,7 +2281,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" ht="26.25" spans="1:6">
+    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>79</v>
       </c>
@@ -2885,7 +2301,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
@@ -2902,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="25.5" spans="1:5">
+    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>82</v>
       </c>
@@ -2919,7 +2335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>83</v>
       </c>
@@ -2936,7 +2352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>84</v>
       </c>
@@ -2953,7 +2369,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" ht="24.75" spans="1:5">
+    <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>85</v>
       </c>
@@ -2970,7 +2386,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>86</v>
       </c>
@@ -2987,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:5">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>87</v>
       </c>
@@ -3004,7 +2420,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:5">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>88</v>
       </c>
@@ -3021,7 +2437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" ht="25.5" spans="1:5">
+    <row r="29" spans="1:6" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>89</v>
       </c>
@@ -3038,7 +2454,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>90</v>
       </c>
@@ -3055,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>91</v>
       </c>
@@ -3072,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" ht="38.25" spans="1:5">
+    <row r="32" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>92</v>
       </c>
@@ -3089,7 +2505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" ht="37.5" spans="1:5">
+    <row r="33" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>93</v>
       </c>
@@ -3106,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="24.75" spans="1:5">
+    <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>94</v>
       </c>
@@ -3123,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" ht="38.25" spans="1:5">
+    <row r="35" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>95</v>
       </c>
@@ -3140,7 +2556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>96</v>
       </c>
@@ -3157,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>97</v>
       </c>
@@ -3174,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="25.5" spans="1:5">
+    <row r="38" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>98</v>
       </c>
@@ -3191,7 +2607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="25.5" spans="1:5">
+    <row r="39" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>99</v>
       </c>
@@ -3208,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>100</v>
       </c>
@@ -3225,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>101</v>
       </c>
@@ -3242,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>102</v>
       </c>
@@ -3259,7 +2675,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>19</v>
       </c>
@@ -3281,23 +2697,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
@@ -3308,11 +2724,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" ht="28.5" spans="1:2">
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -3320,11 +2736,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" ht="71.25" spans="1:2">
+    <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>106</v>
       </c>
@@ -3332,11 +2748,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" ht="28.5" spans="1:2">
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -3344,11 +2760,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" ht="28.5" spans="1:2">
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -3356,11 +2772,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" ht="28.5" spans="1:2">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>102</v>
       </c>
@@ -3368,11 +2784,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" ht="28.5" spans="1:2">
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -3380,11 +2796,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -3392,11 +2808,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
@@ -3404,11 +2820,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -3416,11 +2832,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -3428,11 +2844,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" ht="28.5" spans="1:2">
+    <row r="23" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>57</v>
       </c>
@@ -3440,11 +2856,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
@@ -3452,11 +2868,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" ht="42.75" spans="1:2">
+    <row r="27" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
@@ -3464,11 +2880,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" ht="57" spans="1:2">
+    <row r="29" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>107</v>
       </c>
@@ -3476,11 +2892,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>45</v>
       </c>
@@ -3488,11 +2904,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
@@ -3500,11 +2916,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -3512,11 +2928,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>43</v>
       </c>
@@ -3524,11 +2940,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>60</v>
       </c>
@@ -3536,11 +2952,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" ht="28.5" spans="1:2">
+    <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
@@ -3548,11 +2964,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" ht="28.5" spans="1:2">
+    <row r="43" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>22</v>
       </c>
@@ -3560,11 +2976,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>55</v>
       </c>
@@ -3572,11 +2988,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
@@ -3584,11 +3000,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>21</v>
       </c>
@@ -3596,11 +3012,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" ht="28.5" spans="1:2">
+    <row r="51" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>51</v>
       </c>
@@ -3608,11 +3024,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>11</v>
       </c>
@@ -3620,11 +3036,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>5</v>
       </c>
@@ -3632,11 +3048,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>6</v>
       </c>
@@ -3644,11 +3060,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>30</v>
       </c>
@@ -3656,11 +3072,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" ht="42.75" spans="1:2">
+    <row r="61" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>98</v>
       </c>
@@ -3668,11 +3084,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>29</v>
       </c>
@@ -3680,11 +3096,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>11</v>
       </c>
@@ -3692,11 +3108,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" ht="28.5" spans="1:2">
+    <row r="67" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>108</v>
       </c>
@@ -3704,11 +3120,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" ht="28.5" spans="1:2">
+    <row r="69" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>56</v>
       </c>
@@ -3716,11 +3132,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>59</v>
       </c>
@@ -3728,11 +3144,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" ht="28.5" spans="1:2">
+    <row r="73" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>79</v>
       </c>
@@ -3740,11 +3156,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
     </row>
-    <row r="75" ht="71.25" spans="1:2">
+    <row r="75" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>109</v>
       </c>
@@ -3752,11 +3168,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
     </row>
-    <row r="77" ht="28.5" spans="1:2">
+    <row r="77" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>13</v>
       </c>
@@ -3764,11 +3180,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>69</v>
       </c>
@@ -3776,11 +3192,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>26</v>
       </c>
@@ -3788,11 +3204,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>41</v>
       </c>
@@ -3800,11 +3216,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
     </row>
-    <row r="85" ht="28.5" spans="1:2">
+    <row r="85" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>81</v>
       </c>
@@ -3812,11 +3228,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
     </row>
-    <row r="87" ht="28.5" spans="1:2">
+    <row r="87" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>34</v>
       </c>
@@ -3824,11 +3240,11 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>40</v>
       </c>
@@ -3836,11 +3252,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>58</v>
       </c>
@@ -3848,11 +3264,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>43</v>
       </c>
@@ -3860,11 +3276,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>87</v>
       </c>
@@ -3872,11 +3288,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>5</v>
       </c>
@@ -3884,11 +3300,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>15</v>
       </c>
@@ -3896,11 +3312,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>25</v>
       </c>
@@ -3908,11 +3324,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
     </row>
-    <row r="103" ht="28.5" spans="1:2">
+    <row r="103" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>39</v>
       </c>
@@ -3920,11 +3336,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>67</v>
       </c>
@@ -3932,11 +3348,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>11</v>
       </c>
@@ -3944,11 +3360,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>38</v>
       </c>
@@ -3956,11 +3372,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>12</v>
       </c>
@@ -3968,11 +3384,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>5</v>
       </c>
@@ -3980,11 +3396,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>88</v>
       </c>
@@ -3992,11 +3408,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
     </row>
-    <row r="117" ht="28.5" spans="1:2">
+    <row r="117" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>39</v>
       </c>
@@ -4004,11 +3420,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
     </row>
-    <row r="119" ht="28.5" spans="1:2">
+    <row r="119" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>70</v>
       </c>
@@ -4016,11 +3432,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
     </row>
-    <row r="121" ht="28.5" spans="1:2">
+    <row r="121" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>8</v>
       </c>
@@ -4028,11 +3444,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>58</v>
       </c>
@@ -4040,11 +3456,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>6</v>
       </c>
@@ -4052,11 +3468,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
     </row>
-    <row r="127" ht="28.5" spans="1:2">
+    <row r="127" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>62</v>
       </c>
@@ -4064,11 +3480,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>59</v>
       </c>
@@ -4076,11 +3492,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>18</v>
       </c>
@@ -4088,11 +3504,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>53</v>
       </c>
@@ -4100,11 +3516,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>5</v>
       </c>
@@ -4112,11 +3528,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
     </row>
-    <row r="137" ht="28.5" spans="1:2">
+    <row r="137" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>86</v>
       </c>
@@ -4124,11 +3540,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
     </row>
-    <row r="139" ht="57" spans="1:2">
+    <row r="139" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>71</v>
       </c>
@@ -4136,11 +3552,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
     </row>
-    <row r="141" ht="71.25" spans="1:2">
+    <row r="141" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>109</v>
       </c>
@@ -4148,11 +3564,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>12</v>
       </c>
@@ -4160,11 +3576,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>35</v>
       </c>
@@ -4172,11 +3588,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>27</v>
       </c>
@@ -4184,11 +3600,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
     </row>
-    <row r="149" ht="28.5" spans="1:2">
+    <row r="149" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>46</v>
       </c>
@@ -4196,11 +3612,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>11</v>
       </c>
@@ -4208,11 +3624,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
     </row>
-    <row r="153" ht="28.5" spans="1:2">
+    <row r="153" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>72</v>
       </c>
@@ -4220,11 +3636,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
     </row>
-    <row r="155" ht="28.5" spans="1:2">
+    <row r="155" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>64</v>
       </c>
@@ -4232,11 +3648,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>31</v>
       </c>
@@ -4244,11 +3660,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>16</v>
       </c>
@@ -4256,11 +3672,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>33</v>
       </c>
@@ -4268,11 +3684,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>40</v>
       </c>
@@ -4280,11 +3696,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
     </row>
-    <row r="165" ht="28.5" spans="1:2">
+    <row r="165" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>10</v>
       </c>
@@ -4292,11 +3708,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
     </row>
-    <row r="167" ht="28.5" spans="1:2">
+    <row r="167" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>66</v>
       </c>
@@ -4304,11 +3720,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
     </row>
-    <row r="169" ht="28.5" spans="1:2">
+    <row r="169" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>101</v>
       </c>
@@ -4316,11 +3732,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
     </row>
-    <row r="171" ht="28.5" spans="1:2">
+    <row r="171" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>79</v>
       </c>
@@ -4328,11 +3744,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
     </row>
-    <row r="173" ht="28.5" spans="1:2">
+    <row r="173" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>110</v>
       </c>
@@ -4341,23 +3757,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
@@ -4368,11 +3783,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -4380,11 +3795,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -4392,11 +3807,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" ht="57" spans="1:2">
+    <row r="7" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>48</v>
       </c>
@@ -4404,11 +3819,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
@@ -4416,11 +3831,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" ht="28.5" spans="1:2">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -4428,11 +3843,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" ht="28.5" spans="1:2">
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>83</v>
       </c>
@@ -4440,11 +3855,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" ht="57" spans="1:2">
+    <row r="15" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>92</v>
       </c>
@@ -4452,11 +3867,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" ht="85.5" spans="1:2">
+    <row r="17" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>111</v>
       </c>
@@ -4464,11 +3879,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -4476,11 +3891,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" ht="28.5" spans="1:2">
+    <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -4488,11 +3903,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -4500,11 +3915,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>41</v>
       </c>
@@ -4512,11 +3927,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" ht="57" spans="1:2">
+    <row r="27" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>48</v>
       </c>
@@ -4524,11 +3939,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -4536,11 +3951,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
@@ -4548,11 +3963,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" ht="28.5" spans="1:2">
+    <row r="33" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>90</v>
       </c>
@@ -4560,11 +3975,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
@@ -4572,11 +3987,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>18</v>
       </c>
@@ -4584,11 +3999,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>88</v>
       </c>
@@ -4596,11 +4011,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>14</v>
       </c>
@@ -4608,11 +4023,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" ht="42.75" spans="1:2">
+    <row r="43" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
@@ -4620,11 +4035,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
@@ -4632,11 +4047,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" ht="28.5" spans="1:2">
+    <row r="47" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>83</v>
       </c>
@@ -4644,11 +4059,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" ht="28.5" spans="1:2">
+    <row r="49" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>10</v>
       </c>
@@ -4656,11 +4071,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
@@ -4668,11 +4083,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
@@ -4680,11 +4095,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" ht="28.5" spans="1:2">
+    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
@@ -4692,11 +4107,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" ht="28.5" spans="1:2">
+    <row r="57" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>39</v>
       </c>
@@ -4704,11 +4119,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>47</v>
       </c>
@@ -4716,11 +4131,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>5</v>
       </c>
@@ -4728,11 +4143,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>12</v>
       </c>
@@ -4740,11 +4155,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>21</v>
       </c>
@@ -4752,11 +4167,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>40</v>
       </c>
@@ -4764,11 +4179,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" ht="28.5" spans="1:2">
+    <row r="69" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>62</v>
       </c>
@@ -4776,11 +4191,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" ht="28.5" spans="1:2">
+    <row r="71" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>13</v>
       </c>
@@ -4788,11 +4203,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>44</v>
       </c>
@@ -4800,11 +4215,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
     </row>
-    <row r="75" ht="85.5" spans="1:2">
+    <row r="75" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>52</v>
       </c>
@@ -4812,11 +4227,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
     </row>
-    <row r="77" ht="42.75" spans="1:2">
+    <row r="77" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>61</v>
       </c>
@@ -4824,11 +4239,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
     </row>
-    <row r="79" ht="28.5" spans="1:2">
+    <row r="79" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>13</v>
       </c>
@@ -4836,11 +4251,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>91</v>
       </c>
@@ -4848,11 +4263,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>87</v>
       </c>
@@ -4860,11 +4275,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>6</v>
       </c>
@@ -4872,11 +4287,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>58</v>
       </c>
@@ -4884,11 +4299,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
     </row>
-    <row r="89" ht="28.5" spans="1:2">
+    <row r="89" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>85</v>
       </c>
@@ -4896,11 +4311,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>12</v>
       </c>
@@ -4908,11 +4323,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
     </row>
-    <row r="93" ht="42.75" spans="1:2">
+    <row r="93" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>49</v>
       </c>
@@ -4920,11 +4335,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>7</v>
       </c>
@@ -4932,11 +4347,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>60</v>
       </c>
@@ -4944,11 +4359,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
     </row>
-    <row r="99" ht="28.5" spans="1:2">
+    <row r="99" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>13</v>
       </c>
@@ -4956,11 +4371,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>25</v>
       </c>
@@ -4968,11 +4383,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
     </row>
-    <row r="103" ht="57" spans="1:2">
+    <row r="103" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>48</v>
       </c>
@@ -4980,11 +4395,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>14</v>
       </c>
@@ -4992,11 +4407,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>59</v>
       </c>
@@ -5004,11 +4419,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
     </row>
-    <row r="109" ht="85.5" spans="1:2">
+    <row r="109" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>52</v>
       </c>
@@ -5016,11 +4431,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
     </row>
-    <row r="111" ht="28.5" spans="1:2">
+    <row r="111" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>76</v>
       </c>
@@ -5028,11 +4443,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>15</v>
       </c>
@@ -5040,11 +4455,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>43</v>
       </c>
@@ -5052,11 +4467,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
     </row>
-    <row r="117" ht="28.5" spans="1:2">
+    <row r="117" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>86</v>
       </c>
@@ -5064,11 +4479,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>58</v>
       </c>
@@ -5076,11 +4491,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
     </row>
-    <row r="121" ht="28.5" spans="1:2">
+    <row r="121" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>13</v>
       </c>
@@ -5088,11 +4503,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>6</v>
       </c>
@@ -5100,11 +4515,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>43</v>
       </c>
@@ -5112,11 +4527,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>16</v>
       </c>
@@ -5124,11 +4539,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
     </row>
-    <row r="129" ht="28.5" spans="1:2">
+    <row r="129" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>70</v>
       </c>
@@ -5136,11 +4551,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>9</v>
       </c>
@@ -5148,11 +4563,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>17</v>
       </c>
@@ -5160,11 +4575,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
     </row>
-    <row r="135" ht="57" spans="1:2">
+    <row r="135" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>48</v>
       </c>
@@ -5172,11 +4587,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
     </row>
-    <row r="137" ht="28.5" spans="1:2">
+    <row r="137" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>39</v>
       </c>
@@ -5184,11 +4599,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>59</v>
       </c>
@@ -5196,11 +4611,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
     </row>
-    <row r="141" ht="28.5" spans="1:2">
+    <row r="141" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>108</v>
       </c>
@@ -5208,11 +4623,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>14</v>
       </c>
@@ -5220,11 +4635,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
     </row>
-    <row r="145" ht="28.5" spans="1:2">
+    <row r="145" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>66</v>
       </c>
@@ -5232,11 +4647,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>7</v>
       </c>
@@ -5244,11 +4659,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
     </row>
-    <row r="149" ht="28.5" spans="1:2">
+    <row r="149" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>51</v>
       </c>
@@ -5256,11 +4671,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
     </row>
-    <row r="151" ht="28.5" spans="1:2">
+    <row r="151" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>84</v>
       </c>
@@ -5268,112 +4683,111 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
@@ -5384,11 +4798,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
@@ -5396,11 +4810,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -5408,11 +4822,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -5420,11 +4834,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" ht="28.5" spans="1:2">
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>90</v>
       </c>
@@ -5432,11 +4846,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" ht="28.5" spans="1:2">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>68</v>
       </c>
@@ -5444,11 +4858,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -5456,11 +4870,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" ht="57" spans="1:2">
+    <row r="15" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>92</v>
       </c>
@@ -5468,11 +4882,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" ht="28.5" spans="1:2">
+    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -5480,11 +4894,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
@@ -5492,11 +4906,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -5504,11 +4918,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -5516,11 +4930,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -5528,11 +4942,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>91</v>
       </c>
@@ -5540,11 +4954,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -5552,11 +4966,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" ht="28.5" spans="1:2">
+    <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -5564,11 +4978,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>44</v>
       </c>
@@ -5576,11 +4990,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" ht="28.5" spans="1:2">
+    <row r="35" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
@@ -5588,11 +5002,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" ht="28.5" spans="1:2">
+    <row r="37" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
@@ -5600,11 +5014,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -5612,11 +5026,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>5</v>
       </c>
@@ -5624,11 +5038,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" ht="57" spans="1:2">
+    <row r="43" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>71</v>
       </c>
@@ -5636,11 +5050,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
@@ -5648,11 +5062,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
@@ -5660,11 +5074,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>7</v>
       </c>
@@ -5672,11 +5086,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>42</v>
       </c>
@@ -5684,11 +5098,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" ht="28.5" spans="1:2">
+    <row r="53" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>73</v>
       </c>
@@ -5696,11 +5110,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>14</v>
       </c>
@@ -5708,11 +5122,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" ht="42.75" spans="1:2">
+    <row r="57" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>49</v>
       </c>
@@ -5720,11 +5134,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" ht="28.5" spans="1:2">
+    <row r="59" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -5732,11 +5146,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>45</v>
       </c>
@@ -5744,11 +5158,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>63</v>
       </c>
@@ -5756,11 +5170,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>33</v>
       </c>
@@ -5768,11 +5182,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>43</v>
       </c>
@@ -5780,11 +5194,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>16</v>
       </c>
@@ -5792,11 +5206,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" ht="28.5" spans="1:2">
+    <row r="71" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>85</v>
       </c>
@@ -5804,11 +5218,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>37</v>
       </c>
@@ -5816,11 +5230,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
     </row>
-    <row r="75" ht="28.5" spans="1:2">
+    <row r="75" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>56</v>
       </c>
@@ -5828,11 +5242,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>18</v>
       </c>
@@ -5840,11 +5254,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>29</v>
       </c>
@@ -5852,11 +5266,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>77</v>
       </c>
@@ -5864,11 +5278,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
     </row>
-    <row r="83" ht="28.5" spans="1:2">
+    <row r="83" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>70</v>
       </c>
@@ -5876,11 +5290,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>6</v>
       </c>
@@ -5888,11 +5302,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
     </row>
-    <row r="87" ht="57" spans="1:2">
+    <row r="87" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>48</v>
       </c>
@@ -5900,11 +5314,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>15</v>
       </c>
@@ -5912,11 +5326,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>69</v>
       </c>
@@ -5924,11 +5338,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
     </row>
-    <row r="93" ht="28.5" spans="1:2">
+    <row r="93" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>84</v>
       </c>
@@ -5936,11 +5350,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>28</v>
       </c>
@@ -5948,11 +5362,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
     </row>
-    <row r="97" ht="85.5" spans="1:2">
+    <row r="97" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>52</v>
       </c>
@@ -5960,11 +5374,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>35</v>
       </c>
@@ -5972,11 +5386,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>27</v>
       </c>
@@ -5984,11 +5398,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
     </row>
-    <row r="103" ht="57" spans="1:2">
+    <row r="103" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>107</v>
       </c>
@@ -5996,11 +5410,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
     </row>
-    <row r="105" ht="28.5" spans="1:2">
+    <row r="105" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>57</v>
       </c>
@@ -6008,11 +5422,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
     </row>
-    <row r="107" ht="28.5" spans="1:2">
+    <row r="107" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>76</v>
       </c>
@@ -6020,272 +5434,272 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>